--- a/ASL/ASLttl.xlsx
+++ b/ASL/ASLttl.xlsx
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ASL/ASLttl.xlsx
+++ b/ASL/ASLttl.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>320</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>64</v>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
